--- a/Analysis/Cases v Deaths.xlsx
+++ b/Analysis/Cases v Deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achie\Github\COVID-19\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170A3748-8CB2-432E-A6C1-1D37CC991503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51971B83-2F83-45B8-A7D1-7099AFAD082C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16500" windowWidth="29040" windowHeight="16440" xr2:uid="{B98242D0-32EE-462D-908A-52743DDA9B73}"/>
+    <workbookView xWindow="-28920" yWindow="-14430" windowWidth="29040" windowHeight="16440" xr2:uid="{B98242D0-32EE-462D-908A-52743DDA9B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>United Kingdom</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>Long</t>
-  </si>
-  <si>
-    <t>Deaths</t>
-  </si>
-  <si>
-    <t>Cases</t>
   </si>
 </sst>
 </file>
@@ -185,17 +179,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cases</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -209,754 +192,762 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$IN$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="244"/>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$IP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>Long</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>22/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>25/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>26/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>30/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>31/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>01/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>02/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>03/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>04/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>05/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>06/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>07/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>08/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>09/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>10/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>13/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>14/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>15/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>16/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>17/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>18/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>19/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>20/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>21/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>22/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>23/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>24/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>25/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>26/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>27/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>28/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>29/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
+                  <c:v>01/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43893</c:v>
+                  <c:v>02/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43894</c:v>
+                  <c:v>03/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43895</c:v>
+                  <c:v>04/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43896</c:v>
+                  <c:v>05/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43897</c:v>
+                  <c:v>06/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43898</c:v>
+                  <c:v>07/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43899</c:v>
+                  <c:v>08/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43900</c:v>
+                  <c:v>09/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43901</c:v>
+                  <c:v>10/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43902</c:v>
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43903</c:v>
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43904</c:v>
+                  <c:v>13/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43905</c:v>
+                  <c:v>14/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43906</c:v>
+                  <c:v>15/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43907</c:v>
+                  <c:v>16/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43908</c:v>
+                  <c:v>17/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43909</c:v>
+                  <c:v>18/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43910</c:v>
+                  <c:v>19/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43911</c:v>
+                  <c:v>20/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43912</c:v>
+                  <c:v>21/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43913</c:v>
+                  <c:v>22/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43914</c:v>
+                  <c:v>23/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43915</c:v>
+                  <c:v>24/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43916</c:v>
+                  <c:v>25/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43917</c:v>
+                  <c:v>26/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43918</c:v>
+                  <c:v>27/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43919</c:v>
+                  <c:v>28/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43920</c:v>
+                  <c:v>29/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43921</c:v>
+                  <c:v>30/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43922</c:v>
+                  <c:v>31/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43923</c:v>
+                  <c:v>01/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43924</c:v>
+                  <c:v>02/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43925</c:v>
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43926</c:v>
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43927</c:v>
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43928</c:v>
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43929</c:v>
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43930</c:v>
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43931</c:v>
+                  <c:v>09/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43932</c:v>
+                  <c:v>10/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43933</c:v>
+                  <c:v>11/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43934</c:v>
+                  <c:v>12/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43935</c:v>
+                  <c:v>13/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43936</c:v>
+                  <c:v>14/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43937</c:v>
+                  <c:v>15/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43938</c:v>
+                  <c:v>16/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43939</c:v>
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43940</c:v>
+                  <c:v>18/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43941</c:v>
+                  <c:v>19/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43942</c:v>
+                  <c:v>20/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43943</c:v>
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43944</c:v>
+                  <c:v>22/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43945</c:v>
+                  <c:v>23/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43946</c:v>
+                  <c:v>24/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43947</c:v>
+                  <c:v>25/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43948</c:v>
+                  <c:v>26/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43949</c:v>
+                  <c:v>27/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43950</c:v>
+                  <c:v>28/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43951</c:v>
+                  <c:v>29/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43952</c:v>
+                  <c:v>30/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43953</c:v>
+                  <c:v>01/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43954</c:v>
+                  <c:v>02/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43955</c:v>
+                  <c:v>03/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43956</c:v>
+                  <c:v>04/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43957</c:v>
+                  <c:v>05/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43958</c:v>
+                  <c:v>06/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43959</c:v>
+                  <c:v>07/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43960</c:v>
+                  <c:v>08/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43961</c:v>
+                  <c:v>09/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43962</c:v>
+                  <c:v>10/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43963</c:v>
+                  <c:v>11/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43964</c:v>
+                  <c:v>12/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43965</c:v>
+                  <c:v>13/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43966</c:v>
+                  <c:v>14/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43967</c:v>
+                  <c:v>15/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43968</c:v>
+                  <c:v>16/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>43969</c:v>
+                  <c:v>17/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>43970</c:v>
+                  <c:v>18/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>43971</c:v>
+                  <c:v>19/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>43972</c:v>
+                  <c:v>20/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>43973</c:v>
+                  <c:v>21/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>43974</c:v>
+                  <c:v>22/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>43975</c:v>
+                  <c:v>23/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>43976</c:v>
+                  <c:v>24/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>43977</c:v>
+                  <c:v>25/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>43978</c:v>
+                  <c:v>26/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>43979</c:v>
+                  <c:v>27/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>43980</c:v>
+                  <c:v>28/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>43981</c:v>
+                  <c:v>29/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>43982</c:v>
+                  <c:v>30/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>43983</c:v>
+                  <c:v>31/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>43984</c:v>
+                  <c:v>01/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>43985</c:v>
+                  <c:v>02/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>43986</c:v>
+                  <c:v>03/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>43987</c:v>
+                  <c:v>04/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>43988</c:v>
+                  <c:v>05/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>43989</c:v>
+                  <c:v>06/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>43990</c:v>
+                  <c:v>07/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>43991</c:v>
+                  <c:v>08/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>43992</c:v>
+                  <c:v>09/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>43993</c:v>
+                  <c:v>10/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>43994</c:v>
+                  <c:v>11/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>43995</c:v>
+                  <c:v>12/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>43996</c:v>
+                  <c:v>13/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>43997</c:v>
+                  <c:v>14/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>43998</c:v>
+                  <c:v>15/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>43999</c:v>
+                  <c:v>16/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44000</c:v>
+                  <c:v>17/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44001</c:v>
+                  <c:v>18/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>44002</c:v>
+                  <c:v>19/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>44003</c:v>
+                  <c:v>20/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>44004</c:v>
+                  <c:v>21/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>44005</c:v>
+                  <c:v>22/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>44006</c:v>
+                  <c:v>23/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>44007</c:v>
+                  <c:v>24/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>44008</c:v>
+                  <c:v>25/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>44009</c:v>
+                  <c:v>26/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>44010</c:v>
+                  <c:v>27/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>44011</c:v>
+                  <c:v>28/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>44012</c:v>
+                  <c:v>29/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>44013</c:v>
+                  <c:v>30/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>44014</c:v>
+                  <c:v>01/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>44015</c:v>
+                  <c:v>02/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>44016</c:v>
+                  <c:v>03/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>44017</c:v>
+                  <c:v>04/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>44018</c:v>
+                  <c:v>05/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>44019</c:v>
+                  <c:v>06/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>44020</c:v>
+                  <c:v>07/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>44021</c:v>
+                  <c:v>08/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>44022</c:v>
+                  <c:v>09/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>44023</c:v>
+                  <c:v>10/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>44024</c:v>
+                  <c:v>11/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>44025</c:v>
+                  <c:v>12/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>44026</c:v>
+                  <c:v>13/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>44027</c:v>
+                  <c:v>14/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>44028</c:v>
+                  <c:v>15/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>44029</c:v>
+                  <c:v>16/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>44030</c:v>
+                  <c:v>17/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>44031</c:v>
+                  <c:v>18/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>44032</c:v>
+                  <c:v>19/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>44033</c:v>
+                  <c:v>20/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>44034</c:v>
+                  <c:v>21/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>44035</c:v>
+                  <c:v>22/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>44036</c:v>
+                  <c:v>23/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>44037</c:v>
+                  <c:v>24/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>44038</c:v>
+                  <c:v>25/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>44039</c:v>
+                  <c:v>26/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>44040</c:v>
+                  <c:v>27/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>44041</c:v>
+                  <c:v>28/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>44042</c:v>
+                  <c:v>29/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>44043</c:v>
+                  <c:v>30/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>44044</c:v>
+                  <c:v>31/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>44045</c:v>
+                  <c:v>01/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>44046</c:v>
+                  <c:v>02/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>44047</c:v>
+                  <c:v>03/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>44048</c:v>
+                  <c:v>04/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>44049</c:v>
+                  <c:v>05/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>44050</c:v>
+                  <c:v>06/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>44051</c:v>
+                  <c:v>07/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>44052</c:v>
+                  <c:v>08/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>44053</c:v>
+                  <c:v>09/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>44054</c:v>
+                  <c:v>10/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>44055</c:v>
+                  <c:v>11/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>44056</c:v>
+                  <c:v>12/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>44057</c:v>
+                  <c:v>13/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>44058</c:v>
+                  <c:v>14/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>44059</c:v>
+                  <c:v>15/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>44060</c:v>
+                  <c:v>16/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>44061</c:v>
+                  <c:v>17/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>44062</c:v>
+                  <c:v>18/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>44063</c:v>
+                  <c:v>19/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>44064</c:v>
+                  <c:v>20/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>44065</c:v>
+                  <c:v>21/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>44066</c:v>
+                  <c:v>22/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>44067</c:v>
+                  <c:v>23/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>44068</c:v>
+                  <c:v>24/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>44069</c:v>
+                  <c:v>25/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>44070</c:v>
+                  <c:v>26/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>44071</c:v>
+                  <c:v>27/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>44072</c:v>
+                  <c:v>28/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>44073</c:v>
+                  <c:v>29/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>44074</c:v>
+                  <c:v>30/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>44075</c:v>
+                  <c:v>31/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>44076</c:v>
+                  <c:v>01/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>44077</c:v>
+                  <c:v>02/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>44078</c:v>
+                  <c:v>03/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>44079</c:v>
+                  <c:v>04/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>44080</c:v>
+                  <c:v>05/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>44081</c:v>
+                  <c:v>06/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>44082</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>44083</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>44084</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>44085</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>44086</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>44087</c:v>
+                  <c:v>12/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>44088</c:v>
+                  <c:v>13/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>44089</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>44090</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>44091</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>44092</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>44093</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>44094</c:v>
+                  <c:v>19/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>44095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>20/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>21/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>22/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>23/09/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$IN$3</c:f>
+              <c:f>Sheet1!$D$3:$IP$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3.4359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -983,7 +974,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -992,13 +983,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9</c:v>
@@ -1007,25 +998,25 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>18</c:v>
@@ -1034,658 +1025,667 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>373</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>428</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>629</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>887</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>1298</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>1787</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>2266</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>2630</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>3072</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>3684</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>4452</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>5451</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>6506</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>7760</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>8957</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>10333</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>12668</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>15039</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>17732</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>20816</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>24017</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>26839</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>29696</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>33969</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>38484</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>43398</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>48263</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>53178</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>57198</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>60792</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>66067</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>71517</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>76646</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>81498</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>85813</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>89390</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>92885</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>97068</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>101393</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>106458</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>111756</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>116721</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>121437</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>125289</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>130147</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>134907</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>140397</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>145540</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>150513</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>154261</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>157729</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>162431</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>167152</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>172587</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>177543</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>182270</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>185491</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>188465</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>191843</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>195527</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>199358</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>203125</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>206174</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>208324</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>210645</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>214228</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>217617</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>220915</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>223524</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>226041</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>228106</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>229932</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>232506</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>235547</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>238253</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>240795</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>242825</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>244332</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>245680</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>247287</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>248937</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>250739</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>252473</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>253977</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>255076</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>256145</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>257579</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>259046</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>260388</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>261622</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>262727</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>263518</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>264235</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>265321</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>266474</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>267656</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>268657</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>269710</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>270597</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>271404</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>272430</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>273507</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>274504</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>275524</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>276504</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>277170</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>277792</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>278684</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>279566</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>280340</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>281037</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>281675</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>282308</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>282703</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>283307</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>283710</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>283770</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>283774</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>284276</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>284900</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>285416</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>285768</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>286349</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>286979</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>287621</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>288133</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>288953</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>289603</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>290133</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>291373</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>291911</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>292552</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>293239</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="179">
                   <c:v>294066</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="180">
                   <c:v>294792</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
                   <c:v>295372</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="182">
                   <c:v>295817</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="183">
                   <c:v>296377</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="184">
                   <c:v>297146</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="185">
                   <c:v>297914</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="186">
                   <c:v>298681</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="187">
                   <c:v>299426</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="188">
                   <c:v>300111</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="189">
                   <c:v>300658</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
                   <c:v>301455</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="191">
                   <c:v>302301</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="192">
                   <c:v>303181</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="193">
                   <c:v>303942</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
                   <c:v>304685</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="195">
                   <c:v>305623</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="196">
                   <c:v>306293</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
                   <c:v>307184</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="198">
                   <c:v>308134</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="199">
                   <c:v>309005</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="200">
                   <c:v>309763</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>310825</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="202">
                   <c:v>311641</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="203">
                   <c:v>312789</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="204">
                   <c:v>313798</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="205">
                   <c:v>314927</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="206">
                   <c:v>316367</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="207">
                   <c:v>317379</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="208">
                   <c:v>318484</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="209">
                   <c:v>319197</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="210">
                   <c:v>320286</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="211">
                   <c:v>321098</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="212">
                   <c:v>322280</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
                   <c:v>323313</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="214">
                   <c:v>324601</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="215">
                   <c:v>325642</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="216">
                   <c:v>326614</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>327798</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>328846</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>330368</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>331644</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="221">
                   <c:v>332752</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="222">
                   <c:v>334467</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>335873</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>337168</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>338676</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>340411</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="227">
                   <c:v>342351</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="228">
                   <c:v>344164</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="229">
                   <c:v>347152</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>350100</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>352560</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>355219</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>358138</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="234">
                   <c:v>361677</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="235">
                   <c:v>365174</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="236">
                   <c:v>368504</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="237">
                   <c:v>371125</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="238">
                   <c:v>374228</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="239">
                   <c:v>378219</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="240">
                   <c:v>381614</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="241">
                   <c:v>385936</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="242">
                   <c:v>390358</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="243">
                   <c:v>394257</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>398625</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>403551</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>409729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,17 +1716,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deaths</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1740,754 +1729,762 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$IN$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="244"/>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$IP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>43852</c:v>
+                  <c:v>Long</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43853</c:v>
+                  <c:v>22/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43854</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43855</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43856</c:v>
+                  <c:v>25/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43857</c:v>
+                  <c:v>26/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43858</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43859</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43860</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43861</c:v>
+                  <c:v>30/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43862</c:v>
+                  <c:v>31/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43863</c:v>
+                  <c:v>01/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43864</c:v>
+                  <c:v>02/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43865</c:v>
+                  <c:v>03/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43866</c:v>
+                  <c:v>04/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43867</c:v>
+                  <c:v>05/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43868</c:v>
+                  <c:v>06/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43869</c:v>
+                  <c:v>07/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43870</c:v>
+                  <c:v>08/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43871</c:v>
+                  <c:v>09/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43872</c:v>
+                  <c:v>10/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43873</c:v>
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43874</c:v>
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43875</c:v>
+                  <c:v>13/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43876</c:v>
+                  <c:v>14/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43877</c:v>
+                  <c:v>15/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43878</c:v>
+                  <c:v>16/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43879</c:v>
+                  <c:v>17/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43880</c:v>
+                  <c:v>18/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43881</c:v>
+                  <c:v>19/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43882</c:v>
+                  <c:v>20/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43883</c:v>
+                  <c:v>21/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43884</c:v>
+                  <c:v>22/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43885</c:v>
+                  <c:v>23/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43886</c:v>
+                  <c:v>24/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43887</c:v>
+                  <c:v>25/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43888</c:v>
+                  <c:v>26/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43889</c:v>
+                  <c:v>27/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43890</c:v>
+                  <c:v>28/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43891</c:v>
+                  <c:v>29/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43892</c:v>
+                  <c:v>01/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43893</c:v>
+                  <c:v>02/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43894</c:v>
+                  <c:v>03/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43895</c:v>
+                  <c:v>04/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43896</c:v>
+                  <c:v>05/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43897</c:v>
+                  <c:v>06/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43898</c:v>
+                  <c:v>07/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43899</c:v>
+                  <c:v>08/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43900</c:v>
+                  <c:v>09/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43901</c:v>
+                  <c:v>10/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43902</c:v>
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43903</c:v>
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43904</c:v>
+                  <c:v>13/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43905</c:v>
+                  <c:v>14/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43906</c:v>
+                  <c:v>15/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43907</c:v>
+                  <c:v>16/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43908</c:v>
+                  <c:v>17/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43909</c:v>
+                  <c:v>18/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43910</c:v>
+                  <c:v>19/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43911</c:v>
+                  <c:v>20/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43912</c:v>
+                  <c:v>21/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43913</c:v>
+                  <c:v>22/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43914</c:v>
+                  <c:v>23/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43915</c:v>
+                  <c:v>24/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43916</c:v>
+                  <c:v>25/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43917</c:v>
+                  <c:v>26/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43918</c:v>
+                  <c:v>27/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43919</c:v>
+                  <c:v>28/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43920</c:v>
+                  <c:v>29/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43921</c:v>
+                  <c:v>30/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43922</c:v>
+                  <c:v>31/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43923</c:v>
+                  <c:v>01/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43924</c:v>
+                  <c:v>02/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43925</c:v>
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43926</c:v>
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43927</c:v>
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43928</c:v>
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43929</c:v>
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43930</c:v>
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43931</c:v>
+                  <c:v>09/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43932</c:v>
+                  <c:v>10/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43933</c:v>
+                  <c:v>11/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43934</c:v>
+                  <c:v>12/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43935</c:v>
+                  <c:v>13/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43936</c:v>
+                  <c:v>14/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43937</c:v>
+                  <c:v>15/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43938</c:v>
+                  <c:v>16/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43939</c:v>
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43940</c:v>
+                  <c:v>18/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43941</c:v>
+                  <c:v>19/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43942</c:v>
+                  <c:v>20/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43943</c:v>
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43944</c:v>
+                  <c:v>22/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43945</c:v>
+                  <c:v>23/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43946</c:v>
+                  <c:v>24/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43947</c:v>
+                  <c:v>25/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43948</c:v>
+                  <c:v>26/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43949</c:v>
+                  <c:v>27/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43950</c:v>
+                  <c:v>28/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43951</c:v>
+                  <c:v>29/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43952</c:v>
+                  <c:v>30/04/2020</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43953</c:v>
+                  <c:v>01/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43954</c:v>
+                  <c:v>02/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43955</c:v>
+                  <c:v>03/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43956</c:v>
+                  <c:v>04/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43957</c:v>
+                  <c:v>05/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43958</c:v>
+                  <c:v>06/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43959</c:v>
+                  <c:v>07/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43960</c:v>
+                  <c:v>08/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43961</c:v>
+                  <c:v>09/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43962</c:v>
+                  <c:v>10/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43963</c:v>
+                  <c:v>11/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43964</c:v>
+                  <c:v>12/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43965</c:v>
+                  <c:v>13/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43966</c:v>
+                  <c:v>14/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43967</c:v>
+                  <c:v>15/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43968</c:v>
+                  <c:v>16/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>43969</c:v>
+                  <c:v>17/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>43970</c:v>
+                  <c:v>18/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>43971</c:v>
+                  <c:v>19/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>43972</c:v>
+                  <c:v>20/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>43973</c:v>
+                  <c:v>21/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>43974</c:v>
+                  <c:v>22/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>43975</c:v>
+                  <c:v>23/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>43976</c:v>
+                  <c:v>24/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>43977</c:v>
+                  <c:v>25/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>43978</c:v>
+                  <c:v>26/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>43979</c:v>
+                  <c:v>27/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>43980</c:v>
+                  <c:v>28/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>43981</c:v>
+                  <c:v>29/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>43982</c:v>
+                  <c:v>30/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>43983</c:v>
+                  <c:v>31/05/2020</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>43984</c:v>
+                  <c:v>01/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>43985</c:v>
+                  <c:v>02/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>43986</c:v>
+                  <c:v>03/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>43987</c:v>
+                  <c:v>04/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>43988</c:v>
+                  <c:v>05/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>43989</c:v>
+                  <c:v>06/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>43990</c:v>
+                  <c:v>07/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>43991</c:v>
+                  <c:v>08/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>43992</c:v>
+                  <c:v>09/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>43993</c:v>
+                  <c:v>10/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>43994</c:v>
+                  <c:v>11/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>43995</c:v>
+                  <c:v>12/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>43996</c:v>
+                  <c:v>13/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>43997</c:v>
+                  <c:v>14/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>43998</c:v>
+                  <c:v>15/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>43999</c:v>
+                  <c:v>16/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44000</c:v>
+                  <c:v>17/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44001</c:v>
+                  <c:v>18/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>44002</c:v>
+                  <c:v>19/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>44003</c:v>
+                  <c:v>20/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>44004</c:v>
+                  <c:v>21/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>44005</c:v>
+                  <c:v>22/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>44006</c:v>
+                  <c:v>23/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>44007</c:v>
+                  <c:v>24/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>44008</c:v>
+                  <c:v>25/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>44009</c:v>
+                  <c:v>26/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>44010</c:v>
+                  <c:v>27/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>44011</c:v>
+                  <c:v>28/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>44012</c:v>
+                  <c:v>29/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>44013</c:v>
+                  <c:v>30/06/2020</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>44014</c:v>
+                  <c:v>01/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>44015</c:v>
+                  <c:v>02/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>44016</c:v>
+                  <c:v>03/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>44017</c:v>
+                  <c:v>04/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>44018</c:v>
+                  <c:v>05/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>44019</c:v>
+                  <c:v>06/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>44020</c:v>
+                  <c:v>07/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>44021</c:v>
+                  <c:v>08/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>44022</c:v>
+                  <c:v>09/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>44023</c:v>
+                  <c:v>10/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>44024</c:v>
+                  <c:v>11/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>44025</c:v>
+                  <c:v>12/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>44026</c:v>
+                  <c:v>13/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>44027</c:v>
+                  <c:v>14/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>44028</c:v>
+                  <c:v>15/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>44029</c:v>
+                  <c:v>16/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>44030</c:v>
+                  <c:v>17/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>44031</c:v>
+                  <c:v>18/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>44032</c:v>
+                  <c:v>19/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>44033</c:v>
+                  <c:v>20/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>44034</c:v>
+                  <c:v>21/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>44035</c:v>
+                  <c:v>22/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>44036</c:v>
+                  <c:v>23/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>44037</c:v>
+                  <c:v>24/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>44038</c:v>
+                  <c:v>25/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>44039</c:v>
+                  <c:v>26/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>44040</c:v>
+                  <c:v>27/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>44041</c:v>
+                  <c:v>28/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>44042</c:v>
+                  <c:v>29/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>44043</c:v>
+                  <c:v>30/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>44044</c:v>
+                  <c:v>31/07/2020</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>44045</c:v>
+                  <c:v>01/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>44046</c:v>
+                  <c:v>02/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>44047</c:v>
+                  <c:v>03/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>44048</c:v>
+                  <c:v>04/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>44049</c:v>
+                  <c:v>05/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>44050</c:v>
+                  <c:v>06/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>44051</c:v>
+                  <c:v>07/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>44052</c:v>
+                  <c:v>08/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>44053</c:v>
+                  <c:v>09/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>44054</c:v>
+                  <c:v>10/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>44055</c:v>
+                  <c:v>11/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>44056</c:v>
+                  <c:v>12/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>44057</c:v>
+                  <c:v>13/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>44058</c:v>
+                  <c:v>14/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>44059</c:v>
+                  <c:v>15/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>44060</c:v>
+                  <c:v>16/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>44061</c:v>
+                  <c:v>17/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>44062</c:v>
+                  <c:v>18/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>44063</c:v>
+                  <c:v>19/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>44064</c:v>
+                  <c:v>20/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>44065</c:v>
+                  <c:v>21/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>44066</c:v>
+                  <c:v>22/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>44067</c:v>
+                  <c:v>23/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>44068</c:v>
+                  <c:v>24/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>44069</c:v>
+                  <c:v>25/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>44070</c:v>
+                  <c:v>26/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>44071</c:v>
+                  <c:v>27/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>44072</c:v>
+                  <c:v>28/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>44073</c:v>
+                  <c:v>29/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>44074</c:v>
+                  <c:v>30/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>44075</c:v>
+                  <c:v>31/08/2020</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>44076</c:v>
+                  <c:v>01/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>44077</c:v>
+                  <c:v>02/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>44078</c:v>
+                  <c:v>03/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>44079</c:v>
+                  <c:v>04/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>44080</c:v>
+                  <c:v>05/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>44081</c:v>
+                  <c:v>06/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>44082</c:v>
+                  <c:v>07/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>44083</c:v>
+                  <c:v>08/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>44084</c:v>
+                  <c:v>09/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>44085</c:v>
+                  <c:v>10/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>44086</c:v>
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>44087</c:v>
+                  <c:v>12/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>44088</c:v>
+                  <c:v>13/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>44089</c:v>
+                  <c:v>14/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>44090</c:v>
+                  <c:v>15/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>44091</c:v>
+                  <c:v>16/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>44092</c:v>
+                  <c:v>17/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>44093</c:v>
+                  <c:v>18/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>44094</c:v>
+                  <c:v>19/09/2020</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>44095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>20/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>21/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>22/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>23/09/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$IN$2</c:f>
+              <c:f>Sheet1!$D$2:$IP$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3.4359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2619,604 +2616,613 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>288</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>703</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>884</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>1172</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>1464</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>1676</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>2050</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>2453</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>3125</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>3782</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>4518</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>5274</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>5873</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>6440</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>7545</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>8575</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>9691</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>10813</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>11656</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>12313</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>13037</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>14113</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>14993</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>16029</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>16942</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>18047</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>18479</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>19049</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>20273</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>21120</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>21802</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>22812</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>23627</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>23991</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>24311</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>25280</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>26049</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>26683</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>27381</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>27965</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>28218</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>28490</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>29216</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>29863</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>30321</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>30900</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>31175</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>31392</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>31579</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>32193</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>32640</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>32992</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>33342</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>33753</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>33820</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>33966</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>34466</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>34794</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>35067</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>35358</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>35578</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>35957</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>36061</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>36192</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>36614</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>36957</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>37231</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>37385</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>37445</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>37531</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>37780</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>38034</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>38164</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>38422</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>38565</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>38619</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>38666</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>38861</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>39025</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>39101</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>39232</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>39339</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>39366</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>39395</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>39515</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>39625</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>39692</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>39776</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>39847</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>39878</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>39892</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>39986</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>40073</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>40172</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>40249</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>40289</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>40320</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>40341</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>40394</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>40491</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>40532</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>40581</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>40613</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>40632</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>40643</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="168">
                   <c:v>40697</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="169">
                   <c:v>40754</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="170">
                   <c:v>40785</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="171">
                   <c:v>40819</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="172">
                   <c:v>40836</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="173">
                   <c:v>40845</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="174">
                   <c:v>40855</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="175">
                   <c:v>40899</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="176">
                   <c:v>40925</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="177">
                   <c:v>40949</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="178">
                   <c:v>40975</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="179">
                   <c:v>40984</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="180">
                   <c:v>40995</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
                   <c:v>41005</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="182">
                   <c:v>41030</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="183">
                   <c:v>41047</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="184">
                   <c:v>41056</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="185">
                   <c:v>41088</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="186">
                   <c:v>41103</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="187">
                   <c:v>41111</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="188">
                   <c:v>41114</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="189">
                   <c:v>41135</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>41169</c:v>
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>41169</c:v>
                 </c:pt>
                 <c:pt idx="191">
+                  <c:v>41169</c:v>
+                </c:pt>
+                <c:pt idx="192">
                   <c:v>41189</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="193">
                   <c:v>41202</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="194">
                   <c:v>41207</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="195">
                   <c:v>41208</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="196">
                   <c:v>41226</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
                   <c:v>41240</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="198">
                   <c:v>41258</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="199">
                   <c:v>41270</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="200">
                   <c:v>41273</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>41278</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="202">
                   <c:v>41296</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="203">
                   <c:v>41309</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="204">
                   <c:v>41329</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="205">
                   <c:v>41347</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="206">
                   <c:v>41358</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="207">
                   <c:v>41361</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="208">
                   <c:v>41366</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="209">
                   <c:v>41369</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="210">
                   <c:v>41381</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="211">
                   <c:v>41397</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="212">
                   <c:v>41403</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
                   <c:v>41405</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="214">
                   <c:v>41423</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="215">
                   <c:v>41429</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="216">
                   <c:v>41433</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>41449</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>41465</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>41477</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>41486</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="221">
                   <c:v>41498</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="222">
                   <c:v>41499</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="223">
                   <c:v>41501</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="224">
                   <c:v>41504</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>41514</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>41527</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="227">
                   <c:v>41537</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="228">
                   <c:v>41549</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="229">
                   <c:v>41551</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>41554</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>41586</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>41594</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>41608</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="234">
                   <c:v>41614</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="235">
                   <c:v>41623</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="236">
                   <c:v>41628</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="237">
                   <c:v>41637</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="238">
                   <c:v>41664</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="239">
                   <c:v>41684</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="240">
                   <c:v>41705</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="241">
                   <c:v>41732</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="242">
                   <c:v>41759</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="243">
                   <c:v>41777</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="244">
                   <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>41825</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>41862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,27 +3247,13 @@
         <c:axId val="1781990688"/>
         <c:axId val="1881039360"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1592534400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3302,11 +3294,11 @@
         <c:crossAx val="1881025632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="7"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:tickLblSkip val="7"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1881025632"/>
         <c:scaling>
@@ -3428,6 +3420,7 @@
         <c:axId val="1881039360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="44000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3527,24 +3520,26 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1781990688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1881039360"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
-      </c:dateAx>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -4198,7 +4193,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10815095" cy="7837025"/>
+    <xdr:ext cx="10837333" cy="7852833"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4524,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D841792-67CA-4F29-9A2E-E1EE59A4CB3F}">
-  <dimension ref="A1:IN4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
-    <sheetView topLeftCell="HU1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:IN1"/>
+    <sheetView topLeftCell="HP1" workbookViewId="0">
+      <selection activeCell="IN1" sqref="IN1:IP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4555,7 +4550,7 @@
     <col min="248" max="248" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:248" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:250" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5300,16 +5295,22 @@
       <c r="IN1" s="1">
         <v>44095</v>
       </c>
+      <c r="IO1" s="1">
+        <v>44096</v>
+      </c>
+      <c r="IP1" s="1">
+        <v>44097</v>
+      </c>
     </row>
-    <row r="2" spans="1:248" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:250" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <v>55.378100000000003</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2">
+        <v>-3.4359999999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6043,16 +6044,22 @@
       <c r="IN2">
         <v>41788</v>
       </c>
+      <c r="IO2">
+        <v>41825</v>
+      </c>
+      <c r="IP2">
+        <v>41862</v>
+      </c>
     </row>
-    <row r="3" spans="1:248" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:250" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>55.378100000000003</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>-3.4359999999999999</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6786,8 +6793,14 @@
       <c r="IN3">
         <v>398625</v>
       </c>
+      <c r="IO3">
+        <v>403551</v>
+      </c>
+      <c r="IP3">
+        <v>409729</v>
+      </c>
     </row>
-    <row r="4" spans="1:248" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:250" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
